--- a/src/test/resources/handler/sample-data-witherror.xlsx
+++ b/src/test/resources/handler/sample-data-witherror.xlsx
@@ -1517,8 +1517,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2124,10 +2124,10 @@
         <v>4</v>
       </c>
       <c r="F26" s="13">
-        <v>4.99</v>
+        <v>0</v>
       </c>
       <c r="G26" s="14">
-        <v>19.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:7">
